--- a/docs/variables_cfbstats.xlsx
+++ b/docs/variables_cfbstats.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="298">
   <si>
     <t xml:space="preserve">rushing_defense</t>
   </si>
@@ -39,108 +39,291 @@
     <t xml:space="preserve">TD</t>
   </si>
   <si>
+    <t xml:space="preserve">Common Variables</t>
+  </si>
+  <si>
     <t xml:space="preserve">rushing_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rush_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rush_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rush_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opponent</t>
+  </si>
+  <si>
     <t xml:space="preserve">passing_defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yards/Att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
+    <t xml:space="preserve">att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yards/att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opp_rank</t>
   </si>
   <si>
     <t xml:space="preserve">passing_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">home_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_comp%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_yds/att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
     <t xml:space="preserve">receiving_defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Rec.</t>
+    <t xml:space="preserve">rec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pts_for</t>
   </si>
   <si>
     <t xml:space="preserve">receiving_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">pts_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pts_diff</t>
+  </si>
+  <si>
     <t xml:space="preserve">punt_returns_defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Ret.</t>
+    <t xml:space="preserve">ret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface</t>
   </si>
   <si>
     <t xml:space="preserve">punt_returns_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_ret_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_ret_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_ret_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_ret_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
     <t xml:space="preserve">kickoff_returns_defense</t>
   </si>
   <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
     <t xml:space="preserve">kickoff_returns_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">day_of_week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick_ret_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick_ret_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick_ret_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick_ret_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
     <t xml:space="preserve">punting_opponent_gam</t>
   </si>
   <si>
-    <t xml:space="preserve">Punts</t>
+    <t xml:space="preserve">punts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team</t>
   </si>
   <si>
     <t xml:space="preserve">punting_team</t>
   </si>
   <si>
+    <t xml:space="preserve">punt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punt_avg</t>
+  </si>
+  <si>
     <t xml:space="preserve">kickoffs_opponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Kickoffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touchback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touchback %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-Of-Bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onside</t>
+    <t xml:space="preserve">kickoffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touchback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touchback %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out-of-bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onside</t>
   </si>
   <si>
     <t xml:space="preserve">kickoffs_team</t>
   </si>
   <si>
+    <t xml:space="preserve">kickoff_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_tb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_tb%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_oob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickoff_onside</t>
+  </si>
+  <si>
     <t xml:space="preserve">place_kicking_opponent</t>
   </si>
   <si>
-    <t xml:space="preserve">FG Att.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Pct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XP Att.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XP Made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XP Pct.</t>
+    <t xml:space="preserve">fg_att.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_pct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_att.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_pct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Variables</t>
   </si>
   <si>
     <t xml:space="preserve">place_kicking_team</t>
   </si>
   <si>
+    <t xml:space="preserve">rush_yds/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass_yds/g</t>
+  </si>
+  <si>
     <t xml:space="preserve">scoring_defense</t>
   </si>
   <si>
@@ -159,9 +342,33 @@
     <t xml:space="preserve">Points</t>
   </si>
   <si>
+    <t xml:space="preserve">yds/g</t>
+  </si>
+  <si>
     <t xml:space="preserve">scoring_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">fg_missed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1xp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2xp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xp_missed</t>
+  </si>
+  <si>
     <t xml:space="preserve">total_offense_defense</t>
   </si>
   <si>
@@ -180,9 +387,27 @@
     <t xml:space="preserve">Yards/Play</t>
   </si>
   <si>
+    <t xml:space="preserve">rz_fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">total_offense_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">rz_fail%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yds/play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3down_fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_purpose_running_opponent</t>
   </si>
   <si>
@@ -204,19 +429,43 @@
     <t xml:space="preserve">Yards/G</t>
   </si>
   <si>
+    <t xml:space="preserve">3down_fail%</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_purpose_running_team</t>
   </si>
   <si>
+    <t xml:space="preserve">4down_fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">interceptions</t>
   </si>
   <si>
-    <t xml:space="preserve">Int.</t>
+    <t xml:space="preserve">int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4down_fail%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int_td</t>
   </si>
   <si>
     <t xml:space="preserve">fumble_returns</t>
   </si>
   <si>
-    <t xml:space="preserve">Fum. Ret.</t>
+    <t xml:space="preserve">fum. ret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fum_ret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fum_ret_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fum_ret_td</t>
   </si>
   <si>
     <t xml:space="preserve">tackles</t>
@@ -231,6 +480,18 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">':'',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkl_solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkl_ass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkl_tot</t>
+  </si>
+  <si>
     <t xml:space="preserve">tackles_for_loss</t>
   </si>
   <si>
@@ -240,6 +501,12 @@
     <t xml:space="preserve">TFL Yards</t>
   </si>
   <si>
+    <t xml:space="preserve">tfl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfl_yds</t>
+  </si>
+  <si>
     <t xml:space="preserve">sacks</t>
   </si>
   <si>
@@ -249,52 +516,103 @@
     <t xml:space="preserve">Sack Yards</t>
   </si>
   <si>
+    <t xml:space="preserve">sack_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sack_yds</t>
+  </si>
+  <si>
     <t xml:space="preserve">misc._defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Passes Broken Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QB Hurries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fumbles Forced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kicks/Punts Blocked</t>
+    <t xml:space="preserve">passes broken up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qb hurries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fumbles forced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kicks/punts blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qb_hurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fum_forced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick_blocks</t>
   </si>
   <si>
     <t xml:space="preserve">first_downs_opponent_game</t>
   </si>
   <si>
-    <t xml:space="preserve">Penalty</t>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">first_downs_team</t>
   </si>
   <si>
+    <t xml:space="preserve">1down_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1down_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1down_pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1down_total</t>
+  </si>
+  <si>
     <t xml:space="preserve">penalties_opponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Pen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pen./G</t>
+    <t xml:space="preserve">pen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen./g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yards/g</t>
   </si>
   <si>
     <t xml:space="preserve">penalties_team_game</t>
   </si>
   <si>
+    <t xml:space="preserve">pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen_yds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen_yds/g</t>
+  </si>
+  <si>
     <t xml:space="preserve">3rd_down_conversions_defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Attempts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversion %</t>
+    <t xml:space="preserve">attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversion %</t>
   </si>
   <si>
     <r>
@@ -302,6 +620,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -311,6 +630,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">rd</t>
     </r>
@@ -319,9 +639,19 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_down_conversions_offense</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3down_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3down_conv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3down_conv%</t>
   </si>
   <si>
     <r>
@@ -329,6 +659,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -338,6 +669,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -346,6 +678,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_down_conversions_defense</t>
     </r>
@@ -356,6 +689,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -365,6 +699,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -373,14 +708,27 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_down_conversions_offense</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">4down_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4down_conv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4down_conv%</t>
+  </si>
+  <si>
     <t xml:space="preserve">red_zone_conversions_defense</t>
   </si>
   <si>
+    <t xml:space="preserve">Attempts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scores</t>
   </si>
   <si>
@@ -396,6 +744,27 @@
     <t xml:space="preserve">red_zone_conversions_offense</t>
   </si>
   <si>
+    <t xml:space="preserve">rz_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rz_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd_score%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rz_td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rz_td%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rz_fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rz_fg%</t>
+  </si>
+  <si>
     <t xml:space="preserve">turnover_margin</t>
   </si>
   <si>
@@ -420,72 +789,102 @@
     <t xml:space="preserve">Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opp_rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home_away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pts_for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pts_against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pts_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_of_week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team</t>
+    <t xml:space="preserve">fum_gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int_gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fum_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_margin</t>
   </si>
   <si>
     <t xml:space="preserve">Att/G</t>
   </si>
   <si>
+    <t xml:space="preserve">Comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yards/Att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rec./G</t>
   </si>
   <si>
+    <t xml:space="preserve">Ret.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ret./G</t>
   </si>
   <si>
+    <t xml:space="preserve">Punts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Punts/G</t>
   </si>
   <si>
+    <t xml:space="preserve">Kickoffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touchback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touchback %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-Of-Bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG Att.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG Made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG Pct.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FG Att/G</t>
   </si>
   <si>
     <t xml:space="preserve">FG Made/G</t>
   </si>
   <si>
+    <t xml:space="preserve">XP Att.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XP Made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XP Pct.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XP Att/G</t>
   </si>
   <si>
@@ -498,9 +897,15 @@
     <t xml:space="preserve">Int. Ret.</t>
   </si>
   <si>
+    <t xml:space="preserve">Int.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Int./G</t>
   </si>
   <si>
+    <t xml:space="preserve">Fum. Ret.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total/G</t>
   </si>
   <si>
@@ -510,9 +915,36 @@
     <t xml:space="preserve">Sacks/G</t>
   </si>
   <si>
+    <t xml:space="preserve">Passes Broken Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QB Hurries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumbles Forced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kicks/Punts Blocked</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pass</t>
   </si>
   <si>
+    <t xml:space="preserve">Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen./G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion %</t>
+  </si>
+  <si>
     <t xml:space="preserve">Margin/G</t>
   </si>
   <si>
@@ -535,9 +967,6 @@
   </si>
   <si>
     <t xml:space="preserve">kickoff_returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kickoffs</t>
   </si>
   <si>
     <t xml:space="preserve">place_kicking</t>
@@ -577,11 +1006,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -599,24 +1029,45 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,7 +1104,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,7 +1113,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,6 +1134,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -683,22 +1202,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,10 +1239,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -734,804 +1259,1144 @@
       <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>4</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>4</v>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="K10" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>29</v>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="K16" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>44</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>51</v>
+      <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>51</v>
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>59</v>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>59</v>
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>4</v>
+      <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>4</v>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>109</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>48</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>68</v>
+        <v>125</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>59</v>
+      <c r="A31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>59</v>
+      <c r="A32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>90</v>
+      <c r="A33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="B38" s="0" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>123</v>
+      <c r="H57" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +2418,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A7:E9 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1561,9 +2426,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
@@ -1585,15 +2450,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -1608,88 +2473,88 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>2</v>
@@ -1701,18 +2566,18 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>2</v>
@@ -1724,18 +2589,18 @@
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>2</v>
@@ -1747,18 +2612,18 @@
         <v>4</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>2</v>
@@ -1770,18 +2635,18 @@
         <v>4</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>2</v>
@@ -1793,18 +2658,18 @@
         <v>4</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>2</v>
@@ -1816,18 +2681,18 @@
         <v>4</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>2</v>
@@ -1836,18 +2701,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
@@ -1856,18 +2721,18 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
@@ -1876,24 +2741,24 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
@@ -1902,256 +2767,256 @@
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>2</v>
@@ -2160,15 +3025,15 @@
         <v>4</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>2</v>
@@ -2179,300 +3044,300 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2488,7 +3353,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="A7:E9 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2496,16 +3361,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2520,53 +3385,53 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>2</v>
@@ -2578,18 +3443,18 @@
         <v>4</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>2</v>
@@ -2601,18 +3466,18 @@
         <v>4</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>2</v>
@@ -2624,18 +3489,18 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>2</v>
@@ -2644,18 +3509,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>2</v>
@@ -2664,140 +3529,140 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
@@ -2806,15 +3671,15 @@
         <v>4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
@@ -2825,105 +3690,105 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
